--- a/spider-engine/src/main/resources/股票.xlsx
+++ b/spider-engine/src/main/resources/股票.xlsx
@@ -613,6 +613,44 @@
         <a:xfrm>
           <a:off x="8734425" y="20059650"/>
           <a:ext cx="2876190" cy="4790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504365</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2228850"/>
+          <a:ext cx="3676190" cy="304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
